--- a/questions/Assignment8.xlsx
+++ b/questions/Assignment8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yashm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35CC7523-0492-45C5-AE3B-EDB0327C70E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC73A0BB-4B38-494D-A142-7C60C25B21EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{AA004F42-2DFB-4E40-A8B8-E76EBA99F097}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{AA004F42-2DFB-4E40-A8B8-E76EBA99F097}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>Sets connection parameters of a connection</t>
   </si>
   <si>
-    <t>Starts sequence to setup indications for GATT HTP Thermometer Attribute</t>
-  </si>
-  <si>
     <t>evt_le_connection_closed</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>https://docs.silabs.com/bluetooth/latest/le-gap#evt_le_gap_adv_timeout</t>
   </si>
   <si>
-    <t>https://docs.silabs.com/bluetooth/latest/gatt#cmd_gatt_discover_characteristics</t>
-  </si>
-  <si>
     <t>hilen,lolen,class,methods,connection,service</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t xml:space="preserve">gatt_characteristic_value </t>
   </si>
   <si>
-    <t>cmd_gatt_discover_primary_services_by_uuid</t>
-  </si>
-  <si>
     <t>State = DiscoverServices</t>
   </si>
   <si>
@@ -327,9 +318,6 @@
     <t>ConectionHandle</t>
   </si>
   <si>
-    <t xml:space="preserve">SERVER:gecko_cmd_sm_increase_security                                                                                                                    \CLIENT: If bonded calls =&gt;                                                                                           1. gecko_cmd_sm_increase_security                  2.cmd_gatt_discover_primary_services_by_uuid                                                       \else gecko_cmd_sm_increase_security </t>
-  </si>
-  <si>
     <t>SERVER:No command. Waits for button press                                                    CLIENT:No commands but functions                                                                                 1. display the passkey 2.display confirm PB0 3. Enable the Button IRQ(On button press, external_signal_id is called)</t>
   </si>
   <si>
@@ -343,6 +331,18 @@
   </si>
   <si>
     <t>SERVER:gecko_cmd_le_connection_close  CLEINT: gecko_cmd_le_connection_close</t>
+  </si>
+  <si>
+    <t>gecko_cmd_sm_bondable_set_mode</t>
+  </si>
+  <si>
+    <t>1 - Allow bonding</t>
+  </si>
+  <si>
+    <t>Allows the bonding of devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVER:None                                                                                                                \CLIENT: If bonded calls =&gt;                                                                                                           cmd_gatt_discover_primary_services_by_uuid                                                      </t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,12 +422,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -442,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -512,16 +506,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -839,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FABEA6-0F23-43CC-A5D3-5C367DAC5030}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="65" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -916,7 +900,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>17</v>
@@ -951,17 +935,17 @@
     </row>
     <row r="3" spans="1:14" s="23" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F3" s="22">
         <v>-1</v>
@@ -976,7 +960,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>18</v>
@@ -988,66 +972,90 @@
         <v>18</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="23" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20" t="s">
-        <v>83</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="23" customFormat="1" ht="43.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="23" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" ht="147.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
@@ -1148,16 +1156,16 @@
         <v>31</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>36</v>
@@ -1178,21 +1186,21 @@
         <v>18</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="23" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>18</v>
@@ -1206,8 +1214,8 @@
       <c r="H9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>18</v>
+      <c r="I9" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>18</v>
@@ -1222,115 +1230,93 @@
         <v>18</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="107.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="107.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1339,72 +1325,72 @@
     </row>
     <row r="13" spans="1:14" s="4" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="H13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1413,67 +1399,67 @@
     </row>
     <row r="15" spans="1:14" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="H15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>18</v>
@@ -1492,30 +1478,30 @@
         <v>18</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>18</v>
@@ -1524,10 +1510,10 @@
         <v>18</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -1538,25 +1524,25 @@
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>18</v>
@@ -1565,10 +1551,10 @@
         <v>18</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
@@ -1577,15 +1563,15 @@
         <v>18</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>16</v>
@@ -1626,10 +1612,10 @@
     </row>
     <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>19</v>
@@ -1670,10 +1656,10 @@
     </row>
     <row r="21" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>16</v>
@@ -1718,14 +1704,13 @@
     <hyperlink ref="B6" r:id="rId2" location="evt_le_gap_scan_response" display="https://docs.silabs.com/bluetooth/latest/le-gap - evt_le_gap_scan_response" xr:uid="{DFB49D9B-A96B-41A6-A1CA-D38D5C194AB5}"/>
     <hyperlink ref="E6" r:id="rId3" location="cmd_le_gap_connect" display="https://docs.silabs.com/bluetooth/latest/le-gap - cmd_le_gap_connect" xr:uid="{1DC08161-6B61-4C22-A665-D55325F978D0}"/>
     <hyperlink ref="B8" r:id="rId4" location="evt_le_connection_opened" display="https://docs.silabs.com/bluetooth/latest/le-connection - evt_le_connection_opened" xr:uid="{A22425B5-BE67-41FC-BC43-46DEC5EE4DAA}"/>
-    <hyperlink ref="B10" r:id="rId5" location="evt_le_connection_opened" display="https://docs.silabs.com/bluetooth/latest/le-connection - evt_le_connection_opened" xr:uid="{1252DB3B-AE79-4576-9841-645BD66802D5}"/>
-    <hyperlink ref="B19" r:id="rId6" location="evt_le_connection_closed" display="https://docs.silabs.com/bluetooth/latest/le-connection - evt_le_connection_closed" xr:uid="{919764C9-D451-43EA-A073-A6B0ED1663F4}"/>
-    <hyperlink ref="B20" r:id="rId7" location="evt_le_connection_closed" display="https://docs.silabs.com/bluetooth/latest/le-connection - evt_le_connection_closed" xr:uid="{5803EB0C-A5EC-49A5-84E0-57CF64929D3E}"/>
-    <hyperlink ref="B21" r:id="rId8" location="evt_le_gap_adv_timeout" display="https://docs.silabs.com/bluetooth/latest/le-gap - evt_le_gap_adv_timeout" xr:uid="{A55AB2C7-0120-4AC3-85E8-030E445A5517}"/>
-    <hyperlink ref="B7" r:id="rId9" location="evt_le_connection_opened" display="https://docs.silabs.com/bluetooth/latest/le-connection - evt_le_connection_opened" xr:uid="{73401760-432E-42A8-AEE3-95CE7C1889E6}"/>
-    <hyperlink ref="E7" r:id="rId10" location="cmd_le_connection_set_parameters" display="cmd_le_connection_set_parameters" xr:uid="{D83BB4C7-6729-4462-9AC0-7DDE04192640}"/>
+    <hyperlink ref="B19" r:id="rId5" location="evt_le_connection_closed" display="https://docs.silabs.com/bluetooth/latest/le-connection - evt_le_connection_closed" xr:uid="{919764C9-D451-43EA-A073-A6B0ED1663F4}"/>
+    <hyperlink ref="B20" r:id="rId6" location="evt_le_connection_closed" display="https://docs.silabs.com/bluetooth/latest/le-connection - evt_le_connection_closed" xr:uid="{5803EB0C-A5EC-49A5-84E0-57CF64929D3E}"/>
+    <hyperlink ref="B21" r:id="rId7" location="evt_le_gap_adv_timeout" display="https://docs.silabs.com/bluetooth/latest/le-gap - evt_le_gap_adv_timeout" xr:uid="{A55AB2C7-0120-4AC3-85E8-030E445A5517}"/>
+    <hyperlink ref="B7" r:id="rId8" location="evt_le_connection_opened" display="https://docs.silabs.com/bluetooth/latest/le-connection - evt_le_connection_opened" xr:uid="{73401760-432E-42A8-AEE3-95CE7C1889E6}"/>
+    <hyperlink ref="E7" r:id="rId9" location="cmd_le_connection_set_parameters" display="cmd_le_connection_set_parameters" xr:uid="{D83BB4C7-6729-4462-9AC0-7DDE04192640}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>